--- a/biology/Médecine/Gustave_Gaujot/Gustave_Gaujot.xlsx
+++ b/biology/Médecine/Gustave_Gaujot/Gustave_Gaujot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Constantin Mametz Gustave Gaujot, né le 17 août 1828 à Estrées-Deniécourt et mort à 29 mai 1913 à Paris, est un médecin militaire et chirurgien français.
 </t>
@@ -511,7 +523,9 @@
           <t>Aperçu biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un officier de santé, il poursuit sa scolarité à Péronne, Amiens puis au Lycée Henri IV à Paris. Entre 1852 et 1856, il est interne des hôpitaux après avoir suivi les cours de la Faculté de médecine de Paris. Il intègre l'École de médecine militaire de Strasbourg puis l'École de médecine du Val de Grâce en 1858, où il est nommé aide de clinique chirurgicale. 
 Il rejoint ensuite l'hôpital de Blida dans le cadre de sa formation en chirurgie. Quittant l'Algérie, il est chirurgien de l'armée d'Italie puis au corps d'occupation des États pontificaux.
@@ -544,7 +558,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Du refoulement uni à l'élévation du bras, considéré comme méthode générale pour la réduction des luxations récentes de l'épaule. Paris, 31 janvier 1856.
 De l'uréthrotomie interne, observations recueillies à la clinique de M. le professeur Sédillot, Paris, V. Rozier, 1860.
